--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_ScreenOrientation_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_ScreenOrientation_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -78,16 +78,10 @@
     <t>autoRotate with default value</t>
   </si>
   <si>
-    <t>autorRotate as false and rotate device manually</t>
-  </si>
-  <si>
     <t>autorRotate as true and rotate device manually</t>
   </si>
   <si>
     <t>ScreenOrientation tag persistency</t>
-  </si>
-  <si>
-    <t>autorRotate as false without callback and rotate device manually</t>
   </si>
   <si>
     <t>wait(3);
@@ -165,20 +159,6 @@
 link_Click(ScreenOrientation_test_link);
 wait(2);
 validate2;
-SelectTestToRun(VT281_0911_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-Rotate_Screen(landscape);
-validate4;
-Rotate_Screen(potrait);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(ScreenOrientation_test_link);
-wait(2);
-validate2;
 SelectTestToRun(VT281_0913_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -188,20 +168,6 @@
 Rotate_Screen(potrait);
 validate6;
 validate7;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(ScreenOrientation_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT281_0914_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-Rotate_Screen(landscape);
-validate4;
-Rotate_Screen(potrait);
-validate5;</t>
   </si>
   <si>
     <t>wait(3);
@@ -239,63 +205,11 @@
 };
 validate3
 {
-validate_Text_Exists=VT281-0911
+validate_Text_Exists=VT281-0917
 };
 validate4
 {
-validate_screenOrientation=rotation0
-};
-validate5
-{
-validate_screenOrientation=rotation0
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=ScreenOrientation JS Test
-};
-validate3
-{
-validate_Text_Exists=VT281-0917
-};
-validate4
-{
 validate_screenOrientation=rotation3
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=ScreenOrientation JS Test
-};
-validate3
-{
-validate_Text_Exists=VT281-0920
-};
-validate4
-{
-validate_screenOrientation=rotation1
-};
-validate5
-{
-validate_Result=leftHanded
-};
-validate6
-{
-validate_screenOrientation=rotation0
-};
-validate7
-{
-validate_Result=normal
 };</t>
   </si>
   <si>
@@ -452,28 +366,6 @@
 validate7
 {
 validate_Result=normal
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=ScreenOrientation JS Test
-};
-validate3
-{
-validate_Text_Exists=VT281-0914
-};
-validate4
-{
-validate_screenOrientation=rotation0
-};
-validate5
-{
-validate_screenOrientation=rotation0
 };</t>
   </si>
   <si>
@@ -532,10 +424,30 @@
 press_Key(back);
 Rotate_Screen(landscape);
 validate4;
-validate5;
 Rotate_Screen(potrait);
-validate6;
-validate7;</t>
+validate6;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=ScreenOrientation JS Test
+};
+validate3
+{
+validate_Text_Exists=VT281-0920
+};
+validate4
+{
+validate_screenOrientation=rotation1
+};
+validate6
+{
+validate_screenOrientation=rotation0
+};</t>
   </si>
 </sst>
 </file>
@@ -695,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -738,9 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1039,9 +948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1095,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1105,7 +1016,7 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1115,7 +1026,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="268.5" thickBot="1">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -1130,17 +1041,17 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="217.5" thickBot="1">
-      <c r="A4" s="15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -1157,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1184,17 +1095,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="217.5" thickBot="1">
-      <c r="A6" s="15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1211,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1238,17 +1149,17 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="370.5" thickBot="1">
-      <c r="A8" s="15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -1265,16 +1176,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="268.5" thickBot="1">
+    <row r="9" spans="1:11" ht="370.5" thickBot="1">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1292,17 +1203,17 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="370.5" thickBot="1">
-      <c r="A10" s="15">
+    <row r="10" spans="1:11" ht="217.5" thickBot="1">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1313,16 +1224,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1340,23 +1251,23 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="217.5" thickBot="1">
-      <c r="A12" s="15">
+    <row r="12" spans="1:11" ht="294" thickBot="1">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1367,74 +1278,20 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="370.5" thickBot="1">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="294" thickBot="1">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
